--- a/biology/Microbiologie/Zymomonas_mobilis/Zymomonas_mobilis.xlsx
+++ b/biology/Microbiologie/Zymomonas_mobilis/Zymomonas_mobilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zymomonas mobilis est une bactérie anaérobie facultative à Gram négatif en forme de bâtonnet particulièrement connue pour ses capacités de fermentation alcoolique qui l'ont fait étudier pour la production industrielle d'éthanol pour biocarburants. Elle a été isolée au préalable de boissons alcooliques telles que le vin de palme africain, le pulque mexicain ainsi que comme contaminant du cidre et de la bière en Europe.
 Z. mobilis dégrade certains glucides en pyruvate par la voie d'Entner-Doudoroff, puis le pyruvate est fermenté en éthanol et dioxyde de carbone de façon analogue aux levures. Elle est plus efficace que Saccharomyces. cerevisiae (la levure de bière) pour traiter le glucose, le fructose et le saccharose, mais ne traite pas les oses en C5 tels que le xylose et l'arabinose, qui sont abondants dans les hydrolysats lignocellulosiques, et est sensible aux inhibiteurs tels que l'acide acétique et divers composés phénoliques.
